--- a/client.xlsx
+++ b/client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6112d94d30ce2dcb/Landing PBI Secrets/soft-ui-design-system-main/soft-ui-design-system-main/course/power bi elite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOLDINA Inna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_40ED73BDD390542D57DB3A11595ED87656CEC5E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1A14A1-EBF7-462B-AA5B-E0F806875C40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D2CD50-2D2C-43B2-9F3B-1E514CAF72D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38896" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4267,15 +4267,15 @@
   <dimension ref="A1:E834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="B606" sqref="B606"/>
+      <selection activeCell="N595" sqref="N595"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1292</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>33</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>28</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>33</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>33</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>33</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>33</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1292</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1292</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>33</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>28</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>33</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>33</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>28</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>33</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1292</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1292</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>28</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>33</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>28</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>33</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>33</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>33</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1292</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>33</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>33</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>33</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>33</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>33</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>33</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1292</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1292</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>33</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>33</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>33</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>33</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>33</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>33</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>33</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>33</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>33</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>33</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>33</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1292</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>33</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>33</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>28</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>28</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>33</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>33</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>28</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>33</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>33</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>33</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>33</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>33</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>33</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>20</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>28</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>20</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>20</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>33</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>20</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>33</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>33</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>33</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>33</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>33</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>33</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>20</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>33</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>28</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>28</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>28</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>28</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>33</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>28</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>33</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>33</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>20</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>33</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>20</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>33</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>33</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>33</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>33</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>28</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>20</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>28</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>33</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>20</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>33</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>9</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>20</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>20</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>9</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>33</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>20</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>28</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>20</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>33</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>33</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>33</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>33</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>28</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>33</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>20</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>20</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>33</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>33</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>20</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>33</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>33</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>33</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>28</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>33</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>20</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>33</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>33</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>5</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>20</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>20</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>33</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>33</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>20</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>33</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>20</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>33</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>28</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>28</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>20</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>33</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>33</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>28</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>33</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>33</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>33</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>33</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>20</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>28</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>33</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>33</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>28</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>20</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>28</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>33</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>33</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>28</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>5</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>33</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>33</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>33</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>33</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>20</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>20</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>20</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>20</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>20</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>9</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>5</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>33</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>20</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>28</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>20</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>5</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>20</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>33</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>28</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>33</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>28</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>20</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>20</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>5</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>5</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>20</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>20</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>20</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>20</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>20</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>20</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>33</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>20</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>5</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>5</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>5</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>5</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>28</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>20</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>5</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>20</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>20</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>33</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>5</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>33</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>20</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>33</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>20</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>33</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>20</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>9</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>20</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>5</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>33</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>20</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>33</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>33</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>28</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>28</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>33</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>33</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>28</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>5</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>33</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>33</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>33</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>20</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>20</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>20</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>28</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>33</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>9</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>5</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>20</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>33</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>5</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>33</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>20</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>9</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>28</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>9</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>33</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>5</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>9</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>5</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>28</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>33</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>9</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>20</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>33</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>5</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>28</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>28</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>33</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>9</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>28</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>20</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>33</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>9</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>5</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>28</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>33</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>33</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>20</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>20</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>5</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>20</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>9</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>9</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>33</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>5</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>20</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>33</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>5</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>20</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>33</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>28</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>33</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>20</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>20</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>33</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>9</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>33</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>5</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>28</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>9</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>5</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>5</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>9</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>20</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>9</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>33</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>28</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>5</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>20</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>5</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>20</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>5</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>5</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>9</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>33</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>9</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>33</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>5</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>33</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>28</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>20</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>20</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>5</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>20</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>20</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>9</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>33</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>33</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>33</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>33</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>9</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>20</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>20</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>33</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>33</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>20</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>20</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>33</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>20</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>20</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>5</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>5</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>28</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>9</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>20</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>5</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>33</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>33</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>5</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>5</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>20</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>20</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>5</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>20</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>33</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>20</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>33</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>33</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>33</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>28</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>5</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>33</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>5</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>33</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>28</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>33</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>33</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>28</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>5</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>3989</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>20</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>33</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>20</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>33</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>28</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>9</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>33</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>20</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>20</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>20</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>33</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>5</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>5</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>9</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>9</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>9</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>20</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>9</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>33</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>20</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>5</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>9</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>33</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>4820</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>33</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>9</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>28</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>33</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>9</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>5</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>5083</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>20</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>20</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>28</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>9</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>33</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>33</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>5503</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>20</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>33</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>5597</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>5</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>5610</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>5</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>5</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>9</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>33</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>5888</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>20</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>6051</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>5</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>9</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>33</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>6171</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>5</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>6498</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>20</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>6506</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>9</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>33</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>6756</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>9</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>6791</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>5</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>20</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>7546</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>5</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>5</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>8086</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>20</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>8176</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>28</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>8486</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>33</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>8537</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>33</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>8667</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>20</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>20</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>33</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>9442</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>33</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>9559</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>5</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>5</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>20</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>9</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>5</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>33</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>5</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>33</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>5</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>20</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>28</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>9</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>9</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>28</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>5</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>5083</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>33</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>33</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>5</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>5</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>9</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>5</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>5</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>5</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>33</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>5</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>5</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>33</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>9</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>33</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>9</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>28</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>5</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>20</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>9</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>20</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>33</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>20</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>20</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>28</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>33</v>
       </c>
